--- a/user-data/youth-unemployment/youth-unemployment.xlsx
+++ b/user-data/youth-unemployment/youth-unemployment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="454">
   <si>
     <t>id</t>
   </si>
@@ -1354,9 +1354,6 @@
     <t>Source: World Bank World Development Indicators</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1742,42 +1739,42 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15">
@@ -1793,11 +1790,6 @@
     <row r="17">
       <c r="A17" t="s">
         <v>453</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>454</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/youth-unemployment/youth-unemployment.xlsx
+++ b/user-data/youth-unemployment/youth-unemployment.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -1363,7 +1363,7 @@
     <t>This data contains interpolated values. The interpolated values are typically contained in a column called 'value,' while the uninterpolated values are stored in 'original-value.'</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/youth-unemployment/youth-unemployment.xlsx
+++ b/user-data/youth-unemployment/youth-unemployment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="455">
   <si>
     <t>id</t>
   </si>
@@ -1369,7 +1369,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1792,6 +1795,11 @@
         <v>453</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>454</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/youth-unemployment/youth-unemployment.xlsx
+++ b/user-data/youth-unemployment/youth-unemployment.xlsx
@@ -67,7 +67,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -175,7 +175,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -212,12 +212,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -298,6 +292,12 @@
     <t>Costa Rica</t>
   </si>
   <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
     <t>HR</t>
   </si>
   <si>
@@ -313,7 +313,7 @@
     <t>CW</t>
   </si>
   <si>
-    <t>CuraÃ§ao</t>
+    <t>Curacao</t>
   </si>
   <si>
     <t>CY</t>
@@ -991,7 +991,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -1009,7 +1009,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -1183,7 +1183,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1207,7 +1207,7 @@
     <t>TC</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Turks &amp; Caicos Islands</t>
   </si>
   <si>
     <t>TV</t>
@@ -1228,16 +1228,16 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
     <t>Ukraine</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
   </si>
   <si>
     <t>UY</t>
@@ -1378,7 +1378,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -7789,7 +7789,7 @@
         <v>2001</v>
       </c>
       <c r="D437" t="n">
-        <v>5.800000191</v>
+        <v>3.799999952</v>
       </c>
     </row>
     <row r="438">
@@ -7803,7 +7803,7 @@
         <v>2002</v>
       </c>
       <c r="D438" t="n">
-        <v>5.800000191</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="439">
@@ -7817,7 +7817,7 @@
         <v>2003</v>
       </c>
       <c r="D439" t="n">
-        <v>5.800000191</v>
+        <v>5.199999809</v>
       </c>
     </row>
     <row r="440">
@@ -7831,7 +7831,7 @@
         <v>2004</v>
       </c>
       <c r="D440" t="n">
-        <v>5.800000191</v>
+        <v>3.799999952</v>
       </c>
     </row>
     <row r="441">
@@ -7845,7 +7845,7 @@
         <v>2005</v>
       </c>
       <c r="D441" t="n">
-        <v>5.699999809</v>
+        <v>2.700000048</v>
       </c>
     </row>
     <row r="442">
@@ -7859,7 +7859,7 @@
         <v>2006</v>
       </c>
       <c r="D442" t="n">
-        <v>5.800000191</v>
+        <v>1.799999952</v>
       </c>
     </row>
     <row r="443">
@@ -7873,7 +7873,7 @@
         <v>2007</v>
       </c>
       <c r="D443" t="n">
-        <v>5.800000191</v>
+        <v>1.100000024</v>
       </c>
     </row>
     <row r="444">
@@ -7887,7 +7887,7 @@
         <v>2008</v>
       </c>
       <c r="D444" t="n">
-        <v>5.699999809</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="445">
@@ -7901,7 +7901,7 @@
         <v>2009</v>
       </c>
       <c r="D445" t="n">
-        <v>5.699999809</v>
+        <v>0.100000001</v>
       </c>
     </row>
     <row r="446">
@@ -7915,7 +7915,7 @@
         <v>2010</v>
       </c>
       <c r="D446" t="n">
-        <v>5.699999809</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
@@ -7929,7 +7929,7 @@
         <v>2011</v>
       </c>
       <c r="D447" t="n">
-        <v>5.900000095</v>
+        <v>0.800000012</v>
       </c>
     </row>
     <row r="448">
@@ -7943,7 +7943,7 @@
         <v>2012</v>
       </c>
       <c r="D448" t="n">
-        <v>5.900000095</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="449">
@@ -7957,7 +7957,7 @@
         <v>2013</v>
       </c>
       <c r="D449" t="n">
-        <v>5.699999809</v>
+        <v>0.699999988</v>
       </c>
     </row>
     <row r="450">
@@ -7971,7 +7971,7 @@
         <v>2000</v>
       </c>
       <c r="D450" t="n">
-        <v>5.900000095</v>
+        <v>10.89999962</v>
       </c>
     </row>
     <row r="451">
@@ -7985,7 +7985,7 @@
         <v>2001</v>
       </c>
       <c r="D451" t="n">
-        <v>3.799999952</v>
+        <v>13.69999981</v>
       </c>
     </row>
     <row r="452">
@@ -7999,7 +7999,7 @@
         <v>2002</v>
       </c>
       <c r="D452" t="n">
-        <v>4.5</v>
+        <v>9.899999619</v>
       </c>
     </row>
     <row r="453">
@@ -8013,7 +8013,7 @@
         <v>2003</v>
       </c>
       <c r="D453" t="n">
-        <v>5.199999809</v>
+        <v>10.10000038</v>
       </c>
     </row>
     <row r="454">
@@ -8027,7 +8027,7 @@
         <v>2004</v>
       </c>
       <c r="D454" t="n">
-        <v>3.799999952</v>
+        <v>8.100000381</v>
       </c>
     </row>
     <row r="455">
@@ -8041,7 +8041,7 @@
         <v>2005</v>
       </c>
       <c r="D455" t="n">
-        <v>2.700000048</v>
+        <v>8</v>
       </c>
     </row>
     <row r="456">
@@ -8055,7 +8055,7 @@
         <v>2006</v>
       </c>
       <c r="D456" t="n">
-        <v>1.799999952</v>
+        <v>6.900000095</v>
       </c>
     </row>
     <row r="457">
@@ -8069,7 +8069,7 @@
         <v>2007</v>
       </c>
       <c r="D457" t="n">
-        <v>1.100000024</v>
+        <v>7.400000095</v>
       </c>
     </row>
     <row r="458">
@@ -8083,7 +8083,7 @@
         <v>2008</v>
       </c>
       <c r="D458" t="n">
-        <v>0.5</v>
+        <v>8.199999809</v>
       </c>
     </row>
     <row r="459">
@@ -8097,7 +8097,7 @@
         <v>2009</v>
       </c>
       <c r="D459" t="n">
-        <v>0.100000001</v>
+        <v>8.600000381</v>
       </c>
     </row>
     <row r="460">
@@ -8111,7 +8111,7 @@
         <v>2010</v>
       </c>
       <c r="D460" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="461">
@@ -8125,7 +8125,7 @@
         <v>2011</v>
       </c>
       <c r="D461" t="n">
-        <v>0.800000012</v>
+        <v>6.900000095</v>
       </c>
     </row>
     <row r="462">
@@ -8139,7 +8139,7 @@
         <v>2012</v>
       </c>
       <c r="D462" t="n">
-        <v>0.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="463">
@@ -8153,7 +8153,7 @@
         <v>2013</v>
       </c>
       <c r="D463" t="n">
-        <v>0.699999988</v>
+        <v>7.400000095</v>
       </c>
     </row>
     <row r="464">
@@ -8167,7 +8167,7 @@
         <v>2000</v>
       </c>
       <c r="D464" t="n">
-        <v>10.89999962</v>
+        <v>12.60000038</v>
       </c>
     </row>
     <row r="465">
@@ -8181,7 +8181,7 @@
         <v>2001</v>
       </c>
       <c r="D465" t="n">
-        <v>13.69999981</v>
+        <v>12.80000019</v>
       </c>
     </row>
     <row r="466">
@@ -8195,7 +8195,7 @@
         <v>2002</v>
       </c>
       <c r="D466" t="n">
-        <v>9.899999619</v>
+        <v>13.80000019</v>
       </c>
     </row>
     <row r="467">
@@ -8209,7 +8209,7 @@
         <v>2003</v>
       </c>
       <c r="D467" t="n">
-        <v>10.10000038</v>
+        <v>13.69999981</v>
       </c>
     </row>
     <row r="468">
@@ -8223,7 +8223,7 @@
         <v>2004</v>
       </c>
       <c r="D468" t="n">
-        <v>8.100000381</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="469">
@@ -8237,7 +8237,7 @@
         <v>2005</v>
       </c>
       <c r="D469" t="n">
-        <v>8</v>
+        <v>12.30000019</v>
       </c>
     </row>
     <row r="470">
@@ -8251,7 +8251,7 @@
         <v>2006</v>
       </c>
       <c r="D470" t="n">
-        <v>6.900000095</v>
+        <v>11.69999981</v>
       </c>
     </row>
     <row r="471">
@@ -8265,7 +8265,7 @@
         <v>2007</v>
       </c>
       <c r="D471" t="n">
-        <v>7.400000095</v>
+        <v>11.10000038</v>
       </c>
     </row>
     <row r="472">
@@ -8279,7 +8279,7 @@
         <v>2008</v>
       </c>
       <c r="D472" t="n">
-        <v>8.199999809</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="473">
@@ -8293,7 +8293,7 @@
         <v>2009</v>
       </c>
       <c r="D473" t="n">
-        <v>8.600000381</v>
+        <v>15.30000019</v>
       </c>
     </row>
     <row r="474">
@@ -8307,7 +8307,7 @@
         <v>2010</v>
       </c>
       <c r="D474" t="n">
-        <v>7</v>
+        <v>14.80000019</v>
       </c>
     </row>
     <row r="475">
@@ -8321,7 +8321,7 @@
         <v>2011</v>
       </c>
       <c r="D475" t="n">
-        <v>6.900000095</v>
+        <v>14.10000038</v>
       </c>
     </row>
     <row r="476">
@@ -8335,7 +8335,7 @@
         <v>2012</v>
       </c>
       <c r="D476" t="n">
-        <v>7</v>
+        <v>14.30000019</v>
       </c>
     </row>
     <row r="477">
@@ -8349,7 +8349,7 @@
         <v>2013</v>
       </c>
       <c r="D477" t="n">
-        <v>7.400000095</v>
+        <v>13.80000019</v>
       </c>
     </row>
     <row r="478">
@@ -8363,7 +8363,7 @@
         <v>2000</v>
       </c>
       <c r="D478" t="n">
-        <v>12.60000038</v>
+        <v>10.60000038</v>
       </c>
     </row>
     <row r="479">
@@ -8377,7 +8377,7 @@
         <v>2001</v>
       </c>
       <c r="D479" t="n">
-        <v>12.80000019</v>
+        <v>10.60000038</v>
       </c>
     </row>
     <row r="480">
@@ -8391,7 +8391,7 @@
         <v>2002</v>
       </c>
       <c r="D480" t="n">
-        <v>13.80000019</v>
+        <v>10.60000038</v>
       </c>
     </row>
     <row r="481">
@@ -8405,7 +8405,7 @@
         <v>2003</v>
       </c>
       <c r="D481" t="n">
-        <v>13.69999981</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="482">
@@ -8419,7 +8419,7 @@
         <v>2004</v>
       </c>
       <c r="D482" t="n">
-        <v>13.5</v>
+        <v>10.60000038</v>
       </c>
     </row>
     <row r="483">
@@ -8433,7 +8433,7 @@
         <v>2005</v>
       </c>
       <c r="D483" t="n">
-        <v>12.30000019</v>
+        <v>10.60000038</v>
       </c>
     </row>
     <row r="484">
@@ -8447,7 +8447,7 @@
         <v>2006</v>
       </c>
       <c r="D484" t="n">
-        <v>11.69999981</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="485">
@@ -8461,7 +8461,7 @@
         <v>2007</v>
       </c>
       <c r="D485" t="n">
-        <v>11.10000038</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="486">
@@ -8475,7 +8475,7 @@
         <v>2008</v>
       </c>
       <c r="D486" t="n">
-        <v>11.5</v>
+        <v>10.60000038</v>
       </c>
     </row>
     <row r="487">
@@ -8489,7 +8489,7 @@
         <v>2009</v>
       </c>
       <c r="D487" t="n">
-        <v>15.30000019</v>
+        <v>10.80000019</v>
       </c>
     </row>
     <row r="488">
@@ -8503,7 +8503,7 @@
         <v>2010</v>
       </c>
       <c r="D488" t="n">
-        <v>14.80000019</v>
+        <v>10.69999981</v>
       </c>
     </row>
     <row r="489">
@@ -8517,7 +8517,7 @@
         <v>2011</v>
       </c>
       <c r="D489" t="n">
-        <v>14.10000038</v>
+        <v>10.69999981</v>
       </c>
     </row>
     <row r="490">
@@ -8531,7 +8531,7 @@
         <v>2012</v>
       </c>
       <c r="D490" t="n">
-        <v>14.30000019</v>
+        <v>10.69999981</v>
       </c>
     </row>
     <row r="491">
@@ -8545,7 +8545,7 @@
         <v>2013</v>
       </c>
       <c r="D491" t="n">
-        <v>13.80000019</v>
+        <v>10.80000019</v>
       </c>
     </row>
     <row r="492">
@@ -8559,7 +8559,7 @@
         <v>2000</v>
       </c>
       <c r="D492" t="n">
-        <v>10.60000038</v>
+        <v>10.80000019</v>
       </c>
     </row>
     <row r="493">
@@ -8573,7 +8573,7 @@
         <v>2001</v>
       </c>
       <c r="D493" t="n">
-        <v>10.60000038</v>
+        <v>10.89999962</v>
       </c>
     </row>
     <row r="494">
@@ -8587,7 +8587,7 @@
         <v>2002</v>
       </c>
       <c r="D494" t="n">
-        <v>10.60000038</v>
+        <v>10.89999962</v>
       </c>
     </row>
     <row r="495">
@@ -8601,7 +8601,7 @@
         <v>2003</v>
       </c>
       <c r="D495" t="n">
-        <v>10.5</v>
+        <v>11.10000038</v>
       </c>
     </row>
     <row r="496">
@@ -8615,7 +8615,7 @@
         <v>2004</v>
       </c>
       <c r="D496" t="n">
-        <v>10.60000038</v>
+        <v>10.80000019</v>
       </c>
     </row>
     <row r="497">
@@ -8629,7 +8629,7 @@
         <v>2005</v>
       </c>
       <c r="D497" t="n">
-        <v>10.60000038</v>
+        <v>10.80000019</v>
       </c>
     </row>
     <row r="498">
@@ -8643,7 +8643,7 @@
         <v>2006</v>
       </c>
       <c r="D498" t="n">
-        <v>10.5</v>
+        <v>10.69999981</v>
       </c>
     </row>
     <row r="499">
@@ -8657,7 +8657,7 @@
         <v>2007</v>
       </c>
       <c r="D499" t="n">
-        <v>10.5</v>
+        <v>10.69999981</v>
       </c>
     </row>
     <row r="500">
@@ -8671,7 +8671,7 @@
         <v>2008</v>
       </c>
       <c r="D500" t="n">
-        <v>10.60000038</v>
+        <v>10.80000019</v>
       </c>
     </row>
     <row r="501">
@@ -8699,7 +8699,7 @@
         <v>2010</v>
       </c>
       <c r="D502" t="n">
-        <v>10.69999981</v>
+        <v>10.80000019</v>
       </c>
     </row>
     <row r="503">
@@ -8713,7 +8713,7 @@
         <v>2011</v>
       </c>
       <c r="D503" t="n">
-        <v>10.69999981</v>
+        <v>10.80000019</v>
       </c>
     </row>
     <row r="504">
@@ -8741,7 +8741,7 @@
         <v>2013</v>
       </c>
       <c r="D505" t="n">
-        <v>10.80000019</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="506">
@@ -8754,9 +8754,7 @@
       <c r="C506" t="n">
         <v>2000</v>
       </c>
-      <c r="D506" t="n">
-        <v>10.80000019</v>
-      </c>
+      <c r="D506"/>
     </row>
     <row r="507">
       <c r="A507" t="s">
@@ -8768,9 +8766,7 @@
       <c r="C507" t="n">
         <v>2001</v>
       </c>
-      <c r="D507" t="n">
-        <v>10.89999962</v>
-      </c>
+      <c r="D507"/>
     </row>
     <row r="508">
       <c r="A508" t="s">
@@ -8782,9 +8778,7 @@
       <c r="C508" t="n">
         <v>2002</v>
       </c>
-      <c r="D508" t="n">
-        <v>10.89999962</v>
-      </c>
+      <c r="D508"/>
     </row>
     <row r="509">
       <c r="A509" t="s">
@@ -8796,9 +8790,7 @@
       <c r="C509" t="n">
         <v>2003</v>
       </c>
-      <c r="D509" t="n">
-        <v>11.10000038</v>
-      </c>
+      <c r="D509"/>
     </row>
     <row r="510">
       <c r="A510" t="s">
@@ -8810,9 +8802,7 @@
       <c r="C510" t="n">
         <v>2004</v>
       </c>
-      <c r="D510" t="n">
-        <v>10.80000019</v>
-      </c>
+      <c r="D510"/>
     </row>
     <row r="511">
       <c r="A511" t="s">
@@ -8824,9 +8814,7 @@
       <c r="C511" t="n">
         <v>2005</v>
       </c>
-      <c r="D511" t="n">
-        <v>10.80000019</v>
-      </c>
+      <c r="D511"/>
     </row>
     <row r="512">
       <c r="A512" t="s">
@@ -8838,9 +8826,7 @@
       <c r="C512" t="n">
         <v>2006</v>
       </c>
-      <c r="D512" t="n">
-        <v>10.69999981</v>
-      </c>
+      <c r="D512"/>
     </row>
     <row r="513">
       <c r="A513" t="s">
@@ -8852,9 +8838,7 @@
       <c r="C513" t="n">
         <v>2007</v>
       </c>
-      <c r="D513" t="n">
-        <v>10.69999981</v>
-      </c>
+      <c r="D513"/>
     </row>
     <row r="514">
       <c r="A514" t="s">
@@ -8866,9 +8850,7 @@
       <c r="C514" t="n">
         <v>2008</v>
       </c>
-      <c r="D514" t="n">
-        <v>10.80000019</v>
-      </c>
+      <c r="D514"/>
     </row>
     <row r="515">
       <c r="A515" t="s">
@@ -8880,9 +8862,7 @@
       <c r="C515" t="n">
         <v>2009</v>
       </c>
-      <c r="D515" t="n">
-        <v>10.80000019</v>
-      </c>
+      <c r="D515"/>
     </row>
     <row r="516">
       <c r="A516" t="s">
@@ -8894,9 +8874,7 @@
       <c r="C516" t="n">
         <v>2010</v>
       </c>
-      <c r="D516" t="n">
-        <v>10.80000019</v>
-      </c>
+      <c r="D516"/>
     </row>
     <row r="517">
       <c r="A517" t="s">
@@ -8908,9 +8886,7 @@
       <c r="C517" t="n">
         <v>2011</v>
       </c>
-      <c r="D517" t="n">
-        <v>10.80000019</v>
-      </c>
+      <c r="D517"/>
     </row>
     <row r="518">
       <c r="A518" t="s">
@@ -8922,9 +8898,7 @@
       <c r="C518" t="n">
         <v>2012</v>
       </c>
-      <c r="D518" t="n">
-        <v>10.69999981</v>
-      </c>
+      <c r="D518"/>
     </row>
     <row r="519">
       <c r="A519" t="s">
@@ -8936,9 +8910,7 @@
       <c r="C519" t="n">
         <v>2013</v>
       </c>
-      <c r="D519" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="D519"/>
     </row>
     <row r="520">
       <c r="A520" t="s">
@@ -8950,7 +8922,9 @@
       <c r="C520" t="n">
         <v>2000</v>
       </c>
-      <c r="D520"/>
+      <c r="D520" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="s">
@@ -8962,7 +8936,9 @@
       <c r="C521" t="n">
         <v>2001</v>
       </c>
-      <c r="D521"/>
+      <c r="D521" t="n">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="s">
@@ -8974,7 +8950,9 @@
       <c r="C522" t="n">
         <v>2002</v>
       </c>
-      <c r="D522"/>
+      <c r="D522" t="n">
+        <v>10.60000038</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="s">
@@ -8986,7 +8964,9 @@
       <c r="C523" t="n">
         <v>2003</v>
       </c>
-      <c r="D523"/>
+      <c r="D523" t="n">
+        <v>10.39999962</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="s">
@@ -8998,7 +8978,9 @@
       <c r="C524" t="n">
         <v>2004</v>
       </c>
-      <c r="D524"/>
+      <c r="D524" t="n">
+        <v>9.699999809</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="s">
@@ -9010,7 +8992,9 @@
       <c r="C525" t="n">
         <v>2005</v>
       </c>
-      <c r="D525"/>
+      <c r="D525" t="n">
+        <v>10.60000038</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="s">
@@ -9022,7 +9006,9 @@
       <c r="C526" t="n">
         <v>2006</v>
       </c>
-      <c r="D526"/>
+      <c r="D526" t="n">
+        <v>10.89999962</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="s">
@@ -9034,7 +9020,9 @@
       <c r="C527" t="n">
         <v>2007</v>
       </c>
-      <c r="D527"/>
+      <c r="D527" t="n">
+        <v>10.80000019</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="s">
@@ -9046,7 +9034,9 @@
       <c r="C528" t="n">
         <v>2008</v>
       </c>
-      <c r="D528"/>
+      <c r="D528" t="n">
+        <v>10.80000019</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="s">
@@ -9058,7 +9048,9 @@
       <c r="C529" t="n">
         <v>2009</v>
       </c>
-      <c r="D529"/>
+      <c r="D529" t="n">
+        <v>10.80000019</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="s">
@@ -9070,7 +9062,9 @@
       <c r="C530" t="n">
         <v>2010</v>
       </c>
-      <c r="D530"/>
+      <c r="D530" t="n">
+        <v>10.39999962</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="s">
@@ -9082,7 +9076,9 @@
       <c r="C531" t="n">
         <v>2011</v>
       </c>
-      <c r="D531"/>
+      <c r="D531" t="n">
+        <v>10.89999962</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="s">
@@ -9094,7 +9090,9 @@
       <c r="C532" t="n">
         <v>2012</v>
       </c>
-      <c r="D532"/>
+      <c r="D532" t="n">
+        <v>10.80000019</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="s">
@@ -9106,7 +9104,9 @@
       <c r="C533" t="n">
         <v>2013</v>
       </c>
-      <c r="D533"/>
+      <c r="D533" t="n">
+        <v>10.80000019</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="s">
@@ -9119,7 +9119,7 @@
         <v>2000</v>
       </c>
       <c r="D534" t="n">
-        <v>11</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="535">
@@ -9133,7 +9133,7 @@
         <v>2001</v>
       </c>
       <c r="D535" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="536">
@@ -9147,7 +9147,7 @@
         <v>2002</v>
       </c>
       <c r="D536" t="n">
-        <v>10.60000038</v>
+        <v>21.60000038</v>
       </c>
     </row>
     <row r="537">
@@ -9161,7 +9161,7 @@
         <v>2003</v>
       </c>
       <c r="D537" t="n">
-        <v>10.39999962</v>
+        <v>21.20000076</v>
       </c>
     </row>
     <row r="538">
@@ -9175,7 +9175,7 @@
         <v>2004</v>
       </c>
       <c r="D538" t="n">
-        <v>9.699999809</v>
+        <v>21</v>
       </c>
     </row>
     <row r="539">
@@ -9189,7 +9189,7 @@
         <v>2005</v>
       </c>
       <c r="D539" t="n">
-        <v>10.60000038</v>
+        <v>19.79999924</v>
       </c>
     </row>
     <row r="540">
@@ -9203,7 +9203,7 @@
         <v>2006</v>
       </c>
       <c r="D540" t="n">
-        <v>10.89999962</v>
+        <v>18.39999962</v>
       </c>
     </row>
     <row r="541">
@@ -9217,7 +9217,7 @@
         <v>2007</v>
       </c>
       <c r="D541" t="n">
-        <v>10.80000019</v>
+        <v>17.79999924</v>
       </c>
     </row>
     <row r="542">
@@ -9231,7 +9231,7 @@
         <v>2008</v>
       </c>
       <c r="D542" t="n">
-        <v>10.80000019</v>
+        <v>19.79999924</v>
       </c>
     </row>
     <row r="543">
@@ -9245,7 +9245,7 @@
         <v>2009</v>
       </c>
       <c r="D543" t="n">
-        <v>10.80000019</v>
+        <v>22.70000076</v>
       </c>
     </row>
     <row r="544">
@@ -9259,7 +9259,7 @@
         <v>2010</v>
       </c>
       <c r="D544" t="n">
-        <v>10.39999962</v>
+        <v>18.60000038</v>
       </c>
     </row>
     <row r="545">
@@ -9273,7 +9273,7 @@
         <v>2011</v>
       </c>
       <c r="D545" t="n">
-        <v>10.89999962</v>
+        <v>17.60000038</v>
       </c>
     </row>
     <row r="546">
@@ -9287,7 +9287,7 @@
         <v>2012</v>
       </c>
       <c r="D546" t="n">
-        <v>10.80000019</v>
+        <v>16.20000076</v>
       </c>
     </row>
     <row r="547">
@@ -9301,7 +9301,7 @@
         <v>2013</v>
       </c>
       <c r="D547" t="n">
-        <v>10.80000019</v>
+        <v>16.10000038</v>
       </c>
     </row>
     <row r="548">
@@ -9315,7 +9315,7 @@
         <v>2000</v>
       </c>
       <c r="D548" t="n">
-        <v>21.5</v>
+        <v>9.300000191</v>
       </c>
     </row>
     <row r="549">
@@ -9329,7 +9329,7 @@
         <v>2001</v>
       </c>
       <c r="D549" t="n">
-        <v>21</v>
+        <v>9.399999619</v>
       </c>
     </row>
     <row r="550">
@@ -9343,7 +9343,7 @@
         <v>2002</v>
       </c>
       <c r="D550" t="n">
-        <v>21.60000038</v>
+        <v>9.199999809</v>
       </c>
     </row>
     <row r="551">
@@ -9357,7 +9357,7 @@
         <v>2003</v>
       </c>
       <c r="D551" t="n">
-        <v>21.20000076</v>
+        <v>8.899999619</v>
       </c>
     </row>
     <row r="552">
@@ -9371,7 +9371,7 @@
         <v>2004</v>
       </c>
       <c r="D552" t="n">
-        <v>21</v>
+        <v>8.899999619</v>
       </c>
     </row>
     <row r="553">
@@ -9385,7 +9385,7 @@
         <v>2005</v>
       </c>
       <c r="D553" t="n">
-        <v>19.79999924</v>
+        <v>8.600000381</v>
       </c>
     </row>
     <row r="554">
@@ -9399,7 +9399,7 @@
         <v>2006</v>
       </c>
       <c r="D554" t="n">
-        <v>18.39999962</v>
+        <v>8.300000191</v>
       </c>
     </row>
     <row r="555">
@@ -9413,7 +9413,7 @@
         <v>2007</v>
       </c>
       <c r="D555" t="n">
-        <v>17.79999924</v>
+        <v>8</v>
       </c>
     </row>
     <row r="556">
@@ -9427,7 +9427,7 @@
         <v>2008</v>
       </c>
       <c r="D556" t="n">
-        <v>19.79999924</v>
+        <v>9.100000381</v>
       </c>
     </row>
     <row r="557">
@@ -9441,7 +9441,7 @@
         <v>2009</v>
       </c>
       <c r="D557" t="n">
-        <v>22.70000076</v>
+        <v>9.300000191</v>
       </c>
     </row>
     <row r="558">
@@ -9455,7 +9455,7 @@
         <v>2010</v>
       </c>
       <c r="D558" t="n">
-        <v>18.60000038</v>
+        <v>9</v>
       </c>
     </row>
     <row r="559">
@@ -9469,7 +9469,7 @@
         <v>2011</v>
       </c>
       <c r="D559" t="n">
-        <v>17.60000038</v>
+        <v>9.300000191</v>
       </c>
     </row>
     <row r="560">
@@ -9483,7 +9483,7 @@
         <v>2012</v>
       </c>
       <c r="D560" t="n">
-        <v>16.20000076</v>
+        <v>9.699999809</v>
       </c>
     </row>
     <row r="561">
@@ -9497,7 +9497,7 @@
         <v>2013</v>
       </c>
       <c r="D561" t="n">
-        <v>16.10000038</v>
+        <v>10.10000038</v>
       </c>
     </row>
     <row r="562">
@@ -9511,7 +9511,7 @@
         <v>2000</v>
       </c>
       <c r="D562" t="n">
-        <v>9.300000191</v>
+        <v>31</v>
       </c>
     </row>
     <row r="563">
@@ -9525,7 +9525,7 @@
         <v>2001</v>
       </c>
       <c r="D563" t="n">
-        <v>9.399999619</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="564">
@@ -9539,7 +9539,7 @@
         <v>2002</v>
       </c>
       <c r="D564" t="n">
-        <v>9.199999809</v>
+        <v>27.10000038</v>
       </c>
     </row>
     <row r="565">
@@ -9553,7 +9553,7 @@
         <v>2003</v>
       </c>
       <c r="D565" t="n">
-        <v>8.899999619</v>
+        <v>24.79999924</v>
       </c>
     </row>
     <row r="566">
@@ -9567,7 +9567,7 @@
         <v>2004</v>
       </c>
       <c r="D566" t="n">
-        <v>8.899999619</v>
+        <v>27.10000038</v>
       </c>
     </row>
     <row r="567">
@@ -9581,7 +9581,7 @@
         <v>2005</v>
       </c>
       <c r="D567" t="n">
-        <v>8.600000381</v>
+        <v>24.39999962</v>
       </c>
     </row>
     <row r="568">
@@ -9595,7 +9595,7 @@
         <v>2006</v>
       </c>
       <c r="D568" t="n">
-        <v>8.300000191</v>
+        <v>23.20000076</v>
       </c>
     </row>
     <row r="569">
@@ -9609,7 +9609,7 @@
         <v>2007</v>
       </c>
       <c r="D569" t="n">
-        <v>8</v>
+        <v>22.79999924</v>
       </c>
     </row>
     <row r="570">
@@ -9623,7 +9623,7 @@
         <v>2008</v>
       </c>
       <c r="D570" t="n">
-        <v>9.100000381</v>
+        <v>22.70000076</v>
       </c>
     </row>
     <row r="571">
@@ -9637,7 +9637,7 @@
         <v>2009</v>
       </c>
       <c r="D571" t="n">
-        <v>9.300000191</v>
+        <v>23.60000038</v>
       </c>
     </row>
     <row r="572">
@@ -9651,7 +9651,7 @@
         <v>2010</v>
       </c>
       <c r="D572" t="n">
-        <v>9</v>
+        <v>24.29999924</v>
       </c>
     </row>
     <row r="573">
@@ -9665,7 +9665,7 @@
         <v>2011</v>
       </c>
       <c r="D573" t="n">
-        <v>9.300000191</v>
+        <v>23.20000076</v>
       </c>
     </row>
     <row r="574">
@@ -9679,7 +9679,7 @@
         <v>2012</v>
       </c>
       <c r="D574" t="n">
-        <v>9.699999809</v>
+        <v>20.60000038</v>
       </c>
     </row>
     <row r="575">
@@ -9693,7 +9693,7 @@
         <v>2013</v>
       </c>
       <c r="D575" t="n">
-        <v>10.10000038</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="576">
@@ -9707,7 +9707,7 @@
         <v>2000</v>
       </c>
       <c r="D576" t="n">
-        <v>31</v>
+        <v>10.60000038</v>
       </c>
     </row>
     <row r="577">
@@ -9721,7 +9721,7 @@
         <v>2001</v>
       </c>
       <c r="D577" t="n">
-        <v>25.5</v>
+        <v>10.60000038</v>
       </c>
     </row>
     <row r="578">
@@ -9735,7 +9735,7 @@
         <v>2002</v>
       </c>
       <c r="D578" t="n">
-        <v>27.10000038</v>
+        <v>10.60000038</v>
       </c>
     </row>
     <row r="579">
@@ -9749,7 +9749,7 @@
         <v>2003</v>
       </c>
       <c r="D579" t="n">
-        <v>24.79999924</v>
+        <v>10.60000038</v>
       </c>
     </row>
     <row r="580">
@@ -9763,7 +9763,7 @@
         <v>2004</v>
       </c>
       <c r="D580" t="n">
-        <v>27.10000038</v>
+        <v>10.69999981</v>
       </c>
     </row>
     <row r="581">
@@ -9777,7 +9777,7 @@
         <v>2005</v>
       </c>
       <c r="D581" t="n">
-        <v>24.39999962</v>
+        <v>10.60000038</v>
       </c>
     </row>
     <row r="582">
@@ -9791,7 +9791,7 @@
         <v>2006</v>
       </c>
       <c r="D582" t="n">
-        <v>23.20000076</v>
+        <v>10.69999981</v>
       </c>
     </row>
     <row r="583">
@@ -9805,7 +9805,7 @@
         <v>2007</v>
       </c>
       <c r="D583" t="n">
-        <v>22.79999924</v>
+        <v>10.69999981</v>
       </c>
     </row>
     <row r="584">
@@ -9819,7 +9819,7 @@
         <v>2008</v>
       </c>
       <c r="D584" t="n">
-        <v>22.70000076</v>
+        <v>10.69999981</v>
       </c>
     </row>
     <row r="585">
@@ -9833,7 +9833,7 @@
         <v>2009</v>
       </c>
       <c r="D585" t="n">
-        <v>23.60000038</v>
+        <v>10.60000038</v>
       </c>
     </row>
     <row r="586">
@@ -9847,7 +9847,7 @@
         <v>2010</v>
       </c>
       <c r="D586" t="n">
-        <v>24.29999924</v>
+        <v>10.60000038</v>
       </c>
     </row>
     <row r="587">
@@ -9861,7 +9861,7 @@
         <v>2011</v>
       </c>
       <c r="D587" t="n">
-        <v>23.20000076</v>
+        <v>10.60000038</v>
       </c>
     </row>
     <row r="588">
@@ -9875,7 +9875,7 @@
         <v>2012</v>
       </c>
       <c r="D588" t="n">
-        <v>20.60000038</v>
+        <v>10.60000038</v>
       </c>
     </row>
     <row r="589">
@@ -9889,7 +9889,7 @@
         <v>2013</v>
       </c>
       <c r="D589" t="n">
-        <v>20.5</v>
+        <v>10.69999981</v>
       </c>
     </row>
     <row r="590">
@@ -9917,7 +9917,7 @@
         <v>2001</v>
       </c>
       <c r="D591" t="n">
-        <v>10.60000038</v>
+        <v>10.80000019</v>
       </c>
     </row>
     <row r="592">
@@ -9931,7 +9931,7 @@
         <v>2002</v>
       </c>
       <c r="D592" t="n">
-        <v>10.60000038</v>
+        <v>10.80000019</v>
       </c>
     </row>
     <row r="593">
@@ -9945,7 +9945,7 @@
         <v>2003</v>
       </c>
       <c r="D593" t="n">
-        <v>10.60000038</v>
+        <v>10.89999962</v>
       </c>
     </row>
     <row r="594">
@@ -9959,7 +9959,7 @@
         <v>2004</v>
       </c>
       <c r="D594" t="n">
-        <v>10.69999981</v>
+        <v>10.80000019</v>
       </c>
     </row>
     <row r="595">
@@ -10001,7 +10001,7 @@
         <v>2007</v>
       </c>
       <c r="D597" t="n">
-        <v>10.69999981</v>
+        <v>11</v>
       </c>
     </row>
     <row r="598">
@@ -10057,7 +10057,7 @@
         <v>2011</v>
       </c>
       <c r="D601" t="n">
-        <v>10.60000038</v>
+        <v>10.80000019</v>
       </c>
     </row>
     <row r="602">
@@ -10071,7 +10071,7 @@
         <v>2012</v>
       </c>
       <c r="D602" t="n">
-        <v>10.60000038</v>
+        <v>10.80000019</v>
       </c>
     </row>
     <row r="603">
@@ -10099,7 +10099,7 @@
         <v>2000</v>
       </c>
       <c r="D604" t="n">
-        <v>10.60000038</v>
+        <v>11.10000038</v>
       </c>
     </row>
     <row r="605">
@@ -10113,7 +10113,7 @@
         <v>2001</v>
       </c>
       <c r="D605" t="n">
-        <v>10.80000019</v>
+        <v>13.69999981</v>
       </c>
     </row>
     <row r="606">
@@ -10127,7 +10127,7 @@
         <v>2002</v>
       </c>
       <c r="D606" t="n">
-        <v>10.80000019</v>
+        <v>14.30000019</v>
       </c>
     </row>
     <row r="607">
@@ -10141,7 +10141,7 @@
         <v>2003</v>
       </c>
       <c r="D607" t="n">
-        <v>10.89999962</v>
+        <v>15</v>
       </c>
     </row>
     <row r="608">
@@ -10155,7 +10155,7 @@
         <v>2004</v>
       </c>
       <c r="D608" t="n">
-        <v>10.80000019</v>
+        <v>14.30000019</v>
       </c>
     </row>
     <row r="609">
@@ -10169,7 +10169,7 @@
         <v>2005</v>
       </c>
       <c r="D609" t="n">
-        <v>10.60000038</v>
+        <v>15.10000038</v>
       </c>
     </row>
     <row r="610">
@@ -10183,7 +10183,7 @@
         <v>2006</v>
       </c>
       <c r="D610" t="n">
-        <v>10.69999981</v>
+        <v>14.10000038</v>
       </c>
     </row>
     <row r="611">
@@ -10197,7 +10197,7 @@
         <v>2007</v>
       </c>
       <c r="D611" t="n">
-        <v>11</v>
+        <v>11.10000038</v>
       </c>
     </row>
     <row r="612">
@@ -10211,7 +10211,7 @@
         <v>2008</v>
       </c>
       <c r="D612" t="n">
-        <v>10.69999981</v>
+        <v>11.19999981</v>
       </c>
     </row>
     <row r="613">
@@ -10225,7 +10225,7 @@
         <v>2009</v>
       </c>
       <c r="D613" t="n">
-        <v>10.60000038</v>
+        <v>18</v>
       </c>
     </row>
     <row r="614">
@@ -10239,7 +10239,7 @@
         <v>2010</v>
       </c>
       <c r="D614" t="n">
-        <v>10.60000038</v>
+        <v>17</v>
       </c>
     </row>
     <row r="615">
@@ -10253,7 +10253,7 @@
         <v>2011</v>
       </c>
       <c r="D615" t="n">
-        <v>10.80000019</v>
+        <v>17</v>
       </c>
     </row>
     <row r="616">
@@ -10267,7 +10267,7 @@
         <v>2012</v>
       </c>
       <c r="D616" t="n">
-        <v>10.80000019</v>
+        <v>18.79999924</v>
       </c>
     </row>
     <row r="617">
@@ -10281,7 +10281,7 @@
         <v>2013</v>
       </c>
       <c r="D617" t="n">
-        <v>10.69999981</v>
+        <v>18.20000076</v>
       </c>
     </row>
     <row r="618">
@@ -10295,7 +10295,7 @@
         <v>2000</v>
       </c>
       <c r="D618" t="n">
-        <v>11.10000038</v>
+        <v>5.900000095</v>
       </c>
     </row>
     <row r="619">
@@ -10309,7 +10309,7 @@
         <v>2001</v>
       </c>
       <c r="D619" t="n">
-        <v>13.69999981</v>
+        <v>5.800000191</v>
       </c>
     </row>
     <row r="620">
@@ -10323,7 +10323,7 @@
         <v>2002</v>
       </c>
       <c r="D620" t="n">
-        <v>14.30000019</v>
+        <v>5.800000191</v>
       </c>
     </row>
     <row r="621">
@@ -10337,7 +10337,7 @@
         <v>2003</v>
       </c>
       <c r="D621" t="n">
-        <v>15</v>
+        <v>5.800000191</v>
       </c>
     </row>
     <row r="622">
@@ -10351,7 +10351,7 @@
         <v>2004</v>
       </c>
       <c r="D622" t="n">
-        <v>14.30000019</v>
+        <v>5.800000191</v>
       </c>
     </row>
     <row r="623">
@@ -10365,7 +10365,7 @@
         <v>2005</v>
       </c>
       <c r="D623" t="n">
-        <v>15.10000038</v>
+        <v>5.699999809</v>
       </c>
     </row>
     <row r="624">
@@ -10379,7 +10379,7 @@
         <v>2006</v>
       </c>
       <c r="D624" t="n">
-        <v>14.10000038</v>
+        <v>5.800000191</v>
       </c>
     </row>
     <row r="625">
@@ -10393,7 +10393,7 @@
         <v>2007</v>
       </c>
       <c r="D625" t="n">
-        <v>11.10000038</v>
+        <v>5.800000191</v>
       </c>
     </row>
     <row r="626">
@@ -10407,7 +10407,7 @@
         <v>2008</v>
       </c>
       <c r="D626" t="n">
-        <v>11.19999981</v>
+        <v>5.699999809</v>
       </c>
     </row>
     <row r="627">
@@ -10421,7 +10421,7 @@
         <v>2009</v>
       </c>
       <c r="D627" t="n">
-        <v>18</v>
+        <v>5.699999809</v>
       </c>
     </row>
     <row r="628">
@@ -10435,7 +10435,7 @@
         <v>2010</v>
       </c>
       <c r="D628" t="n">
-        <v>17</v>
+        <v>5.699999809</v>
       </c>
     </row>
     <row r="629">
@@ -10449,7 +10449,7 @@
         <v>2011</v>
       </c>
       <c r="D629" t="n">
-        <v>17</v>
+        <v>5.900000095</v>
       </c>
     </row>
     <row r="630">
@@ -10463,7 +10463,7 @@
         <v>2012</v>
       </c>
       <c r="D630" t="n">
-        <v>18.79999924</v>
+        <v>5.900000095</v>
       </c>
     </row>
     <row r="631">
@@ -10477,7 +10477,7 @@
         <v>2013</v>
       </c>
       <c r="D631" t="n">
-        <v>18.20000076</v>
+        <v>5.699999809</v>
       </c>
     </row>
     <row r="632">
@@ -40031,7 +40031,7 @@
         <v>2000</v>
       </c>
       <c r="D2802" t="n">
-        <v>24.79999924</v>
+        <v>12.19999981</v>
       </c>
     </row>
     <row r="2803">
@@ -40045,7 +40045,7 @@
         <v>2001</v>
       </c>
       <c r="D2803" t="n">
-        <v>23.39999962</v>
+        <v>10.60000038</v>
       </c>
     </row>
     <row r="2804">
@@ -40059,7 +40059,7 @@
         <v>2002</v>
       </c>
       <c r="D2804" t="n">
-        <v>20.60000038</v>
+        <v>11.30000019</v>
       </c>
     </row>
     <row r="2805">
@@ -40073,7 +40073,7 @@
         <v>2003</v>
       </c>
       <c r="D2805" t="n">
-        <v>19.5</v>
+        <v>11.60000038</v>
       </c>
     </row>
     <row r="2806">
@@ -40087,7 +40087,7 @@
         <v>2004</v>
       </c>
       <c r="D2806" t="n">
-        <v>15.69999981</v>
+        <v>10.89999962</v>
       </c>
     </row>
     <row r="2807">
@@ -40101,7 +40101,7 @@
         <v>2005</v>
       </c>
       <c r="D2807" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="2808">
@@ -40115,7 +40115,7 @@
         <v>2006</v>
       </c>
       <c r="D2808" t="n">
-        <v>14.60000038</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2809">
@@ -40129,7 +40129,7 @@
         <v>2007</v>
       </c>
       <c r="D2809" t="n">
-        <v>13.69999981</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="2810">
@@ -40143,7 +40143,7 @@
         <v>2008</v>
       </c>
       <c r="D2810" t="n">
-        <v>13.80000019</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="2811">
@@ -40157,7 +40157,7 @@
         <v>2009</v>
       </c>
       <c r="D2811" t="n">
-        <v>17.79999924</v>
+        <v>19.10000038</v>
       </c>
     </row>
     <row r="2812">
@@ -40171,7 +40171,7 @@
         <v>2010</v>
       </c>
       <c r="D2812" t="n">
-        <v>17.39999962</v>
+        <v>19.60000038</v>
       </c>
     </row>
     <row r="2813">
@@ -40185,7 +40185,7 @@
         <v>2011</v>
       </c>
       <c r="D2813" t="n">
-        <v>19</v>
+        <v>20.10000038</v>
       </c>
     </row>
     <row r="2814">
@@ -40199,7 +40199,7 @@
         <v>2012</v>
       </c>
       <c r="D2814" t="n">
-        <v>17.29999924</v>
+        <v>21.39999962</v>
       </c>
     </row>
     <row r="2815">
@@ -40213,7 +40213,7 @@
         <v>2013</v>
       </c>
       <c r="D2815" t="n">
-        <v>17.79999924</v>
+        <v>20.29999924</v>
       </c>
     </row>
     <row r="2816">
@@ -40227,7 +40227,7 @@
         <v>2000</v>
       </c>
       <c r="D2816" t="n">
-        <v>12.19999981</v>
+        <v>24.79999924</v>
       </c>
     </row>
     <row r="2817">
@@ -40241,7 +40241,7 @@
         <v>2001</v>
       </c>
       <c r="D2817" t="n">
-        <v>10.60000038</v>
+        <v>23.39999962</v>
       </c>
     </row>
     <row r="2818">
@@ -40255,7 +40255,7 @@
         <v>2002</v>
       </c>
       <c r="D2818" t="n">
-        <v>11.30000019</v>
+        <v>20.60000038</v>
       </c>
     </row>
     <row r="2819">
@@ -40269,7 +40269,7 @@
         <v>2003</v>
       </c>
       <c r="D2819" t="n">
-        <v>11.60000038</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="2820">
@@ -40283,7 +40283,7 @@
         <v>2004</v>
       </c>
       <c r="D2820" t="n">
-        <v>10.89999962</v>
+        <v>15.69999981</v>
       </c>
     </row>
     <row r="2821">
@@ -40297,7 +40297,7 @@
         <v>2005</v>
       </c>
       <c r="D2821" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2822">
@@ -40311,7 +40311,7 @@
         <v>2006</v>
       </c>
       <c r="D2822" t="n">
-        <v>14</v>
+        <v>14.60000038</v>
       </c>
     </row>
     <row r="2823">
@@ -40325,7 +40325,7 @@
         <v>2007</v>
       </c>
       <c r="D2823" t="n">
-        <v>14.5</v>
+        <v>13.69999981</v>
       </c>
     </row>
     <row r="2824">
@@ -40339,7 +40339,7 @@
         <v>2008</v>
       </c>
       <c r="D2824" t="n">
-        <v>14.5</v>
+        <v>13.80000019</v>
       </c>
     </row>
     <row r="2825">
@@ -40353,7 +40353,7 @@
         <v>2009</v>
       </c>
       <c r="D2825" t="n">
-        <v>19.10000038</v>
+        <v>17.79999924</v>
       </c>
     </row>
     <row r="2826">
@@ -40367,7 +40367,7 @@
         <v>2010</v>
       </c>
       <c r="D2826" t="n">
-        <v>19.60000038</v>
+        <v>17.39999962</v>
       </c>
     </row>
     <row r="2827">
@@ -40381,7 +40381,7 @@
         <v>2011</v>
       </c>
       <c r="D2827" t="n">
-        <v>20.10000038</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2828">
@@ -40395,7 +40395,7 @@
         <v>2012</v>
       </c>
       <c r="D2828" t="n">
-        <v>21.39999962</v>
+        <v>17.29999924</v>
       </c>
     </row>
     <row r="2829">
@@ -40409,7 +40409,7 @@
         <v>2013</v>
       </c>
       <c r="D2829" t="n">
-        <v>20.29999924</v>
+        <v>17.79999924</v>
       </c>
     </row>
     <row r="2830">
@@ -43801,43 +43801,43 @@
         <v>5.900000095</v>
       </c>
       <c r="D33" t="n">
-        <v>5.800000191</v>
+        <v>3.799999952</v>
       </c>
       <c r="E33" t="n">
-        <v>5.800000191</v>
+        <v>4.5</v>
       </c>
       <c r="F33" t="n">
-        <v>5.800000191</v>
+        <v>5.199999809</v>
       </c>
       <c r="G33" t="n">
-        <v>5.800000191</v>
+        <v>3.799999952</v>
       </c>
       <c r="H33" t="n">
-        <v>5.699999809</v>
+        <v>2.700000048</v>
       </c>
       <c r="I33" t="n">
-        <v>5.800000191</v>
+        <v>1.799999952</v>
       </c>
       <c r="J33" t="n">
-        <v>5.800000191</v>
+        <v>1.100000024</v>
       </c>
       <c r="K33" t="n">
-        <v>5.699999809</v>
+        <v>0.5</v>
       </c>
       <c r="L33" t="n">
-        <v>5.699999809</v>
+        <v>0.100000001</v>
       </c>
       <c r="M33" t="n">
-        <v>5.699999809</v>
+        <v>1</v>
       </c>
       <c r="N33" t="n">
-        <v>5.900000095</v>
+        <v>0.800000012</v>
       </c>
       <c r="O33" t="n">
-        <v>5.900000095</v>
+        <v>0.5</v>
       </c>
       <c r="P33" t="n">
-        <v>5.699999809</v>
+        <v>0.699999988</v>
       </c>
     </row>
     <row r="34">
@@ -43848,46 +43848,46 @@
         <v>69</v>
       </c>
       <c r="C34" t="n">
-        <v>5.900000095</v>
+        <v>10.89999962</v>
       </c>
       <c r="D34" t="n">
-        <v>3.799999952</v>
+        <v>13.69999981</v>
       </c>
       <c r="E34" t="n">
-        <v>4.5</v>
+        <v>9.899999619</v>
       </c>
       <c r="F34" t="n">
-        <v>5.199999809</v>
+        <v>10.10000038</v>
       </c>
       <c r="G34" t="n">
-        <v>3.799999952</v>
+        <v>8.100000381</v>
       </c>
       <c r="H34" t="n">
-        <v>2.700000048</v>
+        <v>8</v>
       </c>
       <c r="I34" t="n">
-        <v>1.799999952</v>
+        <v>6.900000095</v>
       </c>
       <c r="J34" t="n">
-        <v>1.100000024</v>
+        <v>7.400000095</v>
       </c>
       <c r="K34" t="n">
-        <v>0.5</v>
+        <v>8.199999809</v>
       </c>
       <c r="L34" t="n">
-        <v>0.100000001</v>
+        <v>8.600000381</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N34" t="n">
-        <v>0.800000012</v>
+        <v>6.900000095</v>
       </c>
       <c r="O34" t="n">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="P34" t="n">
-        <v>0.699999988</v>
+        <v>7.400000095</v>
       </c>
     </row>
     <row r="35">
@@ -43898,46 +43898,46 @@
         <v>71</v>
       </c>
       <c r="C35" t="n">
-        <v>10.89999962</v>
+        <v>12.60000038</v>
       </c>
       <c r="D35" t="n">
+        <v>12.80000019</v>
+      </c>
+      <c r="E35" t="n">
+        <v>13.80000019</v>
+      </c>
+      <c r="F35" t="n">
         <v>13.69999981</v>
       </c>
-      <c r="E35" t="n">
-        <v>9.899999619</v>
-      </c>
-      <c r="F35" t="n">
-        <v>10.10000038</v>
-      </c>
       <c r="G35" t="n">
-        <v>8.100000381</v>
+        <v>13.5</v>
       </c>
       <c r="H35" t="n">
-        <v>8</v>
+        <v>12.30000019</v>
       </c>
       <c r="I35" t="n">
-        <v>6.900000095</v>
+        <v>11.69999981</v>
       </c>
       <c r="J35" t="n">
-        <v>7.400000095</v>
+        <v>11.10000038</v>
       </c>
       <c r="K35" t="n">
-        <v>8.199999809</v>
+        <v>11.5</v>
       </c>
       <c r="L35" t="n">
-        <v>8.600000381</v>
+        <v>15.30000019</v>
       </c>
       <c r="M35" t="n">
-        <v>7</v>
+        <v>14.80000019</v>
       </c>
       <c r="N35" t="n">
-        <v>6.900000095</v>
+        <v>14.10000038</v>
       </c>
       <c r="O35" t="n">
-        <v>7</v>
+        <v>14.30000019</v>
       </c>
       <c r="P35" t="n">
-        <v>7.400000095</v>
+        <v>13.80000019</v>
       </c>
     </row>
     <row r="36">
@@ -43948,46 +43948,46 @@
         <v>73</v>
       </c>
       <c r="C36" t="n">
-        <v>12.60000038</v>
+        <v>10.60000038</v>
       </c>
       <c r="D36" t="n">
-        <v>12.80000019</v>
+        <v>10.60000038</v>
       </c>
       <c r="E36" t="n">
-        <v>13.80000019</v>
+        <v>10.60000038</v>
       </c>
       <c r="F36" t="n">
-        <v>13.69999981</v>
+        <v>10.5</v>
       </c>
       <c r="G36" t="n">
-        <v>13.5</v>
+        <v>10.60000038</v>
       </c>
       <c r="H36" t="n">
-        <v>12.30000019</v>
+        <v>10.60000038</v>
       </c>
       <c r="I36" t="n">
-        <v>11.69999981</v>
+        <v>10.5</v>
       </c>
       <c r="J36" t="n">
-        <v>11.10000038</v>
+        <v>10.5</v>
       </c>
       <c r="K36" t="n">
-        <v>11.5</v>
+        <v>10.60000038</v>
       </c>
       <c r="L36" t="n">
-        <v>15.30000019</v>
+        <v>10.80000019</v>
       </c>
       <c r="M36" t="n">
-        <v>14.80000019</v>
+        <v>10.69999981</v>
       </c>
       <c r="N36" t="n">
-        <v>14.10000038</v>
+        <v>10.69999981</v>
       </c>
       <c r="O36" t="n">
-        <v>14.30000019</v>
+        <v>10.69999981</v>
       </c>
       <c r="P36" t="n">
-        <v>13.80000019</v>
+        <v>10.80000019</v>
       </c>
     </row>
     <row r="37">
@@ -43998,46 +43998,46 @@
         <v>75</v>
       </c>
       <c r="C37" t="n">
-        <v>10.60000038</v>
+        <v>10.80000019</v>
       </c>
       <c r="D37" t="n">
-        <v>10.60000038</v>
+        <v>10.89999962</v>
       </c>
       <c r="E37" t="n">
-        <v>10.60000038</v>
+        <v>10.89999962</v>
       </c>
       <c r="F37" t="n">
-        <v>10.5</v>
+        <v>11.10000038</v>
       </c>
       <c r="G37" t="n">
-        <v>10.60000038</v>
+        <v>10.80000019</v>
       </c>
       <c r="H37" t="n">
-        <v>10.60000038</v>
+        <v>10.80000019</v>
       </c>
       <c r="I37" t="n">
-        <v>10.5</v>
+        <v>10.69999981</v>
       </c>
       <c r="J37" t="n">
-        <v>10.5</v>
+        <v>10.69999981</v>
       </c>
       <c r="K37" t="n">
-        <v>10.60000038</v>
+        <v>10.80000019</v>
       </c>
       <c r="L37" t="n">
         <v>10.80000019</v>
       </c>
       <c r="M37" t="n">
-        <v>10.69999981</v>
+        <v>10.80000019</v>
       </c>
       <c r="N37" t="n">
-        <v>10.69999981</v>
+        <v>10.80000019</v>
       </c>
       <c r="O37" t="n">
         <v>10.69999981</v>
       </c>
       <c r="P37" t="n">
-        <v>10.80000019</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="38">
@@ -44047,48 +44047,20 @@
       <c r="B38" t="s">
         <v>77</v>
       </c>
-      <c r="C38" t="n">
-        <v>10.80000019</v>
-      </c>
-      <c r="D38" t="n">
-        <v>10.89999962</v>
-      </c>
-      <c r="E38" t="n">
-        <v>10.89999962</v>
-      </c>
-      <c r="F38" t="n">
-        <v>11.10000038</v>
-      </c>
-      <c r="G38" t="n">
-        <v>10.80000019</v>
-      </c>
-      <c r="H38" t="n">
-        <v>10.80000019</v>
-      </c>
-      <c r="I38" t="n">
-        <v>10.69999981</v>
-      </c>
-      <c r="J38" t="n">
-        <v>10.69999981</v>
-      </c>
-      <c r="K38" t="n">
-        <v>10.80000019</v>
-      </c>
-      <c r="L38" t="n">
-        <v>10.80000019</v>
-      </c>
-      <c r="M38" t="n">
-        <v>10.80000019</v>
-      </c>
-      <c r="N38" t="n">
-        <v>10.80000019</v>
-      </c>
-      <c r="O38" t="n">
-        <v>10.69999981</v>
-      </c>
-      <c r="P38" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -44097,20 +44069,48 @@
       <c r="B39" t="s">
         <v>79</v>
       </c>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39"/>
+      <c r="C39" t="n">
+        <v>11</v>
+      </c>
+      <c r="D39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E39" t="n">
+        <v>10.60000038</v>
+      </c>
+      <c r="F39" t="n">
+        <v>10.39999962</v>
+      </c>
+      <c r="G39" t="n">
+        <v>9.699999809</v>
+      </c>
+      <c r="H39" t="n">
+        <v>10.60000038</v>
+      </c>
+      <c r="I39" t="n">
+        <v>10.89999962</v>
+      </c>
+      <c r="J39" t="n">
+        <v>10.80000019</v>
+      </c>
+      <c r="K39" t="n">
+        <v>10.80000019</v>
+      </c>
+      <c r="L39" t="n">
+        <v>10.80000019</v>
+      </c>
+      <c r="M39" t="n">
+        <v>10.39999962</v>
+      </c>
+      <c r="N39" t="n">
+        <v>10.89999962</v>
+      </c>
+      <c r="O39" t="n">
+        <v>10.80000019</v>
+      </c>
+      <c r="P39" t="n">
+        <v>10.80000019</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -44120,46 +44120,46 @@
         <v>81</v>
       </c>
       <c r="C40" t="n">
-        <v>11</v>
+        <v>21.5</v>
       </c>
       <c r="D40" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="E40" t="n">
-        <v>10.60000038</v>
+        <v>21.60000038</v>
       </c>
       <c r="F40" t="n">
-        <v>10.39999962</v>
+        <v>21.20000076</v>
       </c>
       <c r="G40" t="n">
-        <v>9.699999809</v>
+        <v>21</v>
       </c>
       <c r="H40" t="n">
-        <v>10.60000038</v>
+        <v>19.79999924</v>
       </c>
       <c r="I40" t="n">
-        <v>10.89999962</v>
+        <v>18.39999962</v>
       </c>
       <c r="J40" t="n">
-        <v>10.80000019</v>
+        <v>17.79999924</v>
       </c>
       <c r="K40" t="n">
-        <v>10.80000019</v>
+        <v>19.79999924</v>
       </c>
       <c r="L40" t="n">
-        <v>10.80000019</v>
+        <v>22.70000076</v>
       </c>
       <c r="M40" t="n">
-        <v>10.39999962</v>
+        <v>18.60000038</v>
       </c>
       <c r="N40" t="n">
-        <v>10.89999962</v>
+        <v>17.60000038</v>
       </c>
       <c r="O40" t="n">
-        <v>10.80000019</v>
+        <v>16.20000076</v>
       </c>
       <c r="P40" t="n">
-        <v>10.80000019</v>
+        <v>16.10000038</v>
       </c>
     </row>
     <row r="41">
@@ -44170,46 +44170,46 @@
         <v>83</v>
       </c>
       <c r="C41" t="n">
-        <v>21.5</v>
+        <v>9.300000191</v>
       </c>
       <c r="D41" t="n">
-        <v>21</v>
+        <v>9.399999619</v>
       </c>
       <c r="E41" t="n">
-        <v>21.60000038</v>
+        <v>9.199999809</v>
       </c>
       <c r="F41" t="n">
-        <v>21.20000076</v>
+        <v>8.899999619</v>
       </c>
       <c r="G41" t="n">
-        <v>21</v>
+        <v>8.899999619</v>
       </c>
       <c r="H41" t="n">
-        <v>19.79999924</v>
+        <v>8.600000381</v>
       </c>
       <c r="I41" t="n">
-        <v>18.39999962</v>
+        <v>8.300000191</v>
       </c>
       <c r="J41" t="n">
-        <v>17.79999924</v>
+        <v>8</v>
       </c>
       <c r="K41" t="n">
-        <v>19.79999924</v>
+        <v>9.100000381</v>
       </c>
       <c r="L41" t="n">
-        <v>22.70000076</v>
+        <v>9.300000191</v>
       </c>
       <c r="M41" t="n">
-        <v>18.60000038</v>
+        <v>9</v>
       </c>
       <c r="N41" t="n">
-        <v>17.60000038</v>
+        <v>9.300000191</v>
       </c>
       <c r="O41" t="n">
-        <v>16.20000076</v>
+        <v>9.699999809</v>
       </c>
       <c r="P41" t="n">
-        <v>16.10000038</v>
+        <v>10.10000038</v>
       </c>
     </row>
     <row r="42">
@@ -44220,46 +44220,46 @@
         <v>85</v>
       </c>
       <c r="C42" t="n">
-        <v>9.300000191</v>
+        <v>31</v>
       </c>
       <c r="D42" t="n">
-        <v>9.399999619</v>
+        <v>25.5</v>
       </c>
       <c r="E42" t="n">
-        <v>9.199999809</v>
+        <v>27.10000038</v>
       </c>
       <c r="F42" t="n">
-        <v>8.899999619</v>
+        <v>24.79999924</v>
       </c>
       <c r="G42" t="n">
-        <v>8.899999619</v>
+        <v>27.10000038</v>
       </c>
       <c r="H42" t="n">
-        <v>8.600000381</v>
+        <v>24.39999962</v>
       </c>
       <c r="I42" t="n">
-        <v>8.300000191</v>
+        <v>23.20000076</v>
       </c>
       <c r="J42" t="n">
-        <v>8</v>
+        <v>22.79999924</v>
       </c>
       <c r="K42" t="n">
-        <v>9.100000381</v>
+        <v>22.70000076</v>
       </c>
       <c r="L42" t="n">
-        <v>9.300000191</v>
+        <v>23.60000038</v>
       </c>
       <c r="M42" t="n">
-        <v>9</v>
+        <v>24.29999924</v>
       </c>
       <c r="N42" t="n">
-        <v>9.300000191</v>
+        <v>23.20000076</v>
       </c>
       <c r="O42" t="n">
-        <v>9.699999809</v>
+        <v>20.60000038</v>
       </c>
       <c r="P42" t="n">
-        <v>10.10000038</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="43">
@@ -44270,46 +44270,46 @@
         <v>87</v>
       </c>
       <c r="C43" t="n">
-        <v>31</v>
+        <v>10.60000038</v>
       </c>
       <c r="D43" t="n">
-        <v>25.5</v>
+        <v>10.60000038</v>
       </c>
       <c r="E43" t="n">
-        <v>27.10000038</v>
+        <v>10.60000038</v>
       </c>
       <c r="F43" t="n">
-        <v>24.79999924</v>
+        <v>10.60000038</v>
       </c>
       <c r="G43" t="n">
-        <v>27.10000038</v>
+        <v>10.69999981</v>
       </c>
       <c r="H43" t="n">
-        <v>24.39999962</v>
+        <v>10.60000038</v>
       </c>
       <c r="I43" t="n">
-        <v>23.20000076</v>
+        <v>10.69999981</v>
       </c>
       <c r="J43" t="n">
-        <v>22.79999924</v>
+        <v>10.69999981</v>
       </c>
       <c r="K43" t="n">
-        <v>22.70000076</v>
+        <v>10.69999981</v>
       </c>
       <c r="L43" t="n">
-        <v>23.60000038</v>
+        <v>10.60000038</v>
       </c>
       <c r="M43" t="n">
-        <v>24.29999924</v>
+        <v>10.60000038</v>
       </c>
       <c r="N43" t="n">
-        <v>23.20000076</v>
+        <v>10.60000038</v>
       </c>
       <c r="O43" t="n">
-        <v>20.60000038</v>
+        <v>10.60000038</v>
       </c>
       <c r="P43" t="n">
-        <v>20.5</v>
+        <v>10.69999981</v>
       </c>
     </row>
     <row r="44">
@@ -44323,16 +44323,16 @@
         <v>10.60000038</v>
       </c>
       <c r="D44" t="n">
-        <v>10.60000038</v>
+        <v>10.80000019</v>
       </c>
       <c r="E44" t="n">
-        <v>10.60000038</v>
+        <v>10.80000019</v>
       </c>
       <c r="F44" t="n">
-        <v>10.60000038</v>
+        <v>10.89999962</v>
       </c>
       <c r="G44" t="n">
-        <v>10.69999981</v>
+        <v>10.80000019</v>
       </c>
       <c r="H44" t="n">
         <v>10.60000038</v>
@@ -44341,7 +44341,7 @@
         <v>10.69999981</v>
       </c>
       <c r="J44" t="n">
-        <v>10.69999981</v>
+        <v>11</v>
       </c>
       <c r="K44" t="n">
         <v>10.69999981</v>
@@ -44353,10 +44353,10 @@
         <v>10.60000038</v>
       </c>
       <c r="N44" t="n">
-        <v>10.60000038</v>
+        <v>10.80000019</v>
       </c>
       <c r="O44" t="n">
-        <v>10.60000038</v>
+        <v>10.80000019</v>
       </c>
       <c r="P44" t="n">
         <v>10.69999981</v>
@@ -44370,46 +44370,46 @@
         <v>91</v>
       </c>
       <c r="C45" t="n">
-        <v>10.60000038</v>
+        <v>11.10000038</v>
       </c>
       <c r="D45" t="n">
-        <v>10.80000019</v>
+        <v>13.69999981</v>
       </c>
       <c r="E45" t="n">
-        <v>10.80000019</v>
+        <v>14.30000019</v>
       </c>
       <c r="F45" t="n">
-        <v>10.89999962</v>
+        <v>15</v>
       </c>
       <c r="G45" t="n">
-        <v>10.80000019</v>
+        <v>14.30000019</v>
       </c>
       <c r="H45" t="n">
-        <v>10.60000038</v>
+        <v>15.10000038</v>
       </c>
       <c r="I45" t="n">
-        <v>10.69999981</v>
+        <v>14.10000038</v>
       </c>
       <c r="J45" t="n">
-        <v>11</v>
+        <v>11.10000038</v>
       </c>
       <c r="K45" t="n">
-        <v>10.69999981</v>
+        <v>11.19999981</v>
       </c>
       <c r="L45" t="n">
-        <v>10.60000038</v>
+        <v>18</v>
       </c>
       <c r="M45" t="n">
-        <v>10.60000038</v>
+        <v>17</v>
       </c>
       <c r="N45" t="n">
-        <v>10.80000019</v>
+        <v>17</v>
       </c>
       <c r="O45" t="n">
-        <v>10.80000019</v>
+        <v>18.79999924</v>
       </c>
       <c r="P45" t="n">
-        <v>10.69999981</v>
+        <v>18.20000076</v>
       </c>
     </row>
     <row r="46">
@@ -44420,46 +44420,46 @@
         <v>93</v>
       </c>
       <c r="C46" t="n">
-        <v>11.10000038</v>
+        <v>5.900000095</v>
       </c>
       <c r="D46" t="n">
-        <v>13.69999981</v>
+        <v>5.800000191</v>
       </c>
       <c r="E46" t="n">
-        <v>14.30000019</v>
+        <v>5.800000191</v>
       </c>
       <c r="F46" t="n">
-        <v>15</v>
+        <v>5.800000191</v>
       </c>
       <c r="G46" t="n">
-        <v>14.30000019</v>
+        <v>5.800000191</v>
       </c>
       <c r="H46" t="n">
-        <v>15.10000038</v>
+        <v>5.699999809</v>
       </c>
       <c r="I46" t="n">
-        <v>14.10000038</v>
+        <v>5.800000191</v>
       </c>
       <c r="J46" t="n">
-        <v>11.10000038</v>
+        <v>5.800000191</v>
       </c>
       <c r="K46" t="n">
-        <v>11.19999981</v>
+        <v>5.699999809</v>
       </c>
       <c r="L46" t="n">
-        <v>18</v>
+        <v>5.699999809</v>
       </c>
       <c r="M46" t="n">
-        <v>17</v>
+        <v>5.699999809</v>
       </c>
       <c r="N46" t="n">
-        <v>17</v>
+        <v>5.900000095</v>
       </c>
       <c r="O46" t="n">
-        <v>18.79999924</v>
+        <v>5.900000095</v>
       </c>
       <c r="P46" t="n">
-        <v>18.20000076</v>
+        <v>5.699999809</v>
       </c>
     </row>
     <row r="47">
@@ -51380,46 +51380,46 @@
         <v>405</v>
       </c>
       <c r="C202" t="n">
-        <v>24.79999924</v>
+        <v>12.19999981</v>
       </c>
       <c r="D202" t="n">
-        <v>23.39999962</v>
+        <v>10.60000038</v>
       </c>
       <c r="E202" t="n">
-        <v>20.60000038</v>
+        <v>11.30000019</v>
       </c>
       <c r="F202" t="n">
-        <v>19.5</v>
+        <v>11.60000038</v>
       </c>
       <c r="G202" t="n">
-        <v>15.69999981</v>
+        <v>10.89999962</v>
       </c>
       <c r="H202" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="I202" t="n">
-        <v>14.60000038</v>
+        <v>14</v>
       </c>
       <c r="J202" t="n">
-        <v>13.69999981</v>
+        <v>14.5</v>
       </c>
       <c r="K202" t="n">
-        <v>13.80000019</v>
+        <v>14.5</v>
       </c>
       <c r="L202" t="n">
-        <v>17.79999924</v>
+        <v>19.10000038</v>
       </c>
       <c r="M202" t="n">
-        <v>17.39999962</v>
+        <v>19.60000038</v>
       </c>
       <c r="N202" t="n">
-        <v>19</v>
+        <v>20.10000038</v>
       </c>
       <c r="O202" t="n">
-        <v>17.29999924</v>
+        <v>21.39999962</v>
       </c>
       <c r="P202" t="n">
-        <v>17.79999924</v>
+        <v>20.29999924</v>
       </c>
     </row>
     <row r="203">
@@ -51430,46 +51430,46 @@
         <v>407</v>
       </c>
       <c r="C203" t="n">
-        <v>12.19999981</v>
+        <v>24.79999924</v>
       </c>
       <c r="D203" t="n">
-        <v>10.60000038</v>
+        <v>23.39999962</v>
       </c>
       <c r="E203" t="n">
-        <v>11.30000019</v>
+        <v>20.60000038</v>
       </c>
       <c r="F203" t="n">
-        <v>11.60000038</v>
+        <v>19.5</v>
       </c>
       <c r="G203" t="n">
-        <v>10.89999962</v>
+        <v>15.69999981</v>
       </c>
       <c r="H203" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="I203" t="n">
-        <v>14</v>
+        <v>14.60000038</v>
       </c>
       <c r="J203" t="n">
-        <v>14.5</v>
+        <v>13.69999981</v>
       </c>
       <c r="K203" t="n">
-        <v>14.5</v>
+        <v>13.80000019</v>
       </c>
       <c r="L203" t="n">
-        <v>19.10000038</v>
+        <v>17.79999924</v>
       </c>
       <c r="M203" t="n">
-        <v>19.60000038</v>
+        <v>17.39999962</v>
       </c>
       <c r="N203" t="n">
-        <v>20.10000038</v>
+        <v>19</v>
       </c>
       <c r="O203" t="n">
-        <v>21.39999962</v>
+        <v>17.29999924</v>
       </c>
       <c r="P203" t="n">
-        <v>20.29999924</v>
+        <v>17.79999924</v>
       </c>
     </row>
     <row r="204">
